--- a/文档/工程项目导出表.xlsx
+++ b/文档/工程项目导出表.xlsx
@@ -6,15 +6,42 @@
     <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId3"/>
+    <sheet name="sheet0" sheetId="1" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">序号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
+  <si>
+    <t xml:space="preserve">房产名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">房产编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建筑年代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建筑层数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建筑结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建筑用途</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资产原值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资产编码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备编码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地区</t>
   </si>
   <si>
     <t xml:space="preserve">工程名称</t>
@@ -50,6 +77,45 @@
     <t xml:space="preserve">形象进度</t>
   </si>
   <si>
+    <t xml:space="preserve">合同金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">实际发生额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欠款金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">质保金支付时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施工单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">负责人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分包金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付金额1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">欠款金额1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否挂账</t>
+  </si>
+  <si>
     <t xml:space="preserve">收集整理</t>
   </si>
   <si>
@@ -59,22 +125,34 @@
     <t xml:space="preserve">验收合格</t>
   </si>
   <si>
-    <t xml:space="preserve">合同金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实际发生额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">付款金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">欠款金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">质保金支付时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">变电运检二工区办公楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0800032807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4层</t>
+  </si>
+  <si>
+    <t xml:space="preserve">钢混</t>
+  </si>
+  <si>
+    <t xml:space="preserve">办公用房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2851939.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270100000039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">022100000000016342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铁东</t>
   </si>
   <si>
     <t xml:space="preserve">国网辽宁鞍山车辆运输服务部综合楼装饰装修分系统4层、5层停车场改造</t>
@@ -92,7 +170,7 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">1990/1/12 0:00:00</t>
+    <t xml:space="preserve">2022/4/22 0:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">1990/1/1 0:00:00</t>
@@ -101,10 +179,97 @@
     <t xml:space="preserve">鞍山电力实业有限公司</t>
   </si>
   <si>
+    <t xml:space="preserve">2022/3/22 0:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辽宁恒禹电力工程有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闵春雨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">否</t>
+  </si>
+  <si>
     <t xml:space="preserve">未完成</t>
   </si>
   <si>
-    <t xml:space="preserve">2022/3/22 0:00:00</t>
+    <t xml:space="preserve">国网辽宁鞍山海城供电分公司八里供电所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5708572232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2层</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乡镇供电所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2260771.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270100001038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">022100000000546997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海城</t>
+  </si>
+  <si>
+    <t xml:space="preserve">原国网海城农电局办公楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0800029919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5层</t>
+  </si>
+  <si>
+    <t xml:space="preserve">砖混</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1778063.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270100000592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">022200000000018172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">立山供电公司办公楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0800032284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3583940.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270100000224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">022100000000016320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">立山</t>
   </si>
 </sst>
 </file>
@@ -112,7 +277,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -120,16 +285,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,12 +321,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -154,129 +372,609 @@
     <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.78125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.78125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.78125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.78125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.78125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.78125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.171875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="58.59375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="58.59375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.78125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.78125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="20.78125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="11.171875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="17.78125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.78125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="7.171875" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.171875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="10.171875" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="7.171875" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.171875" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/文档/工程项目导出表.xlsx
+++ b/文档/工程项目导出表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="87">
   <si>
     <t xml:space="preserve">房产名称</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">地区</t>
   </si>
   <si>
+    <t xml:space="preserve">工程编号</t>
+  </si>
+  <si>
     <t xml:space="preserve">工程名称</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
     <t xml:space="preserve">工程内容</t>
   </si>
   <si>
+    <t xml:space="preserve">工程年份</t>
+  </si>
+  <si>
     <t xml:space="preserve">计划金额</t>
   </si>
   <si>
@@ -104,12 +110,6 @@
     <t xml:space="preserve">分包金额</t>
   </si>
   <si>
-    <t xml:space="preserve">支付金额1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">欠款金额1</t>
-  </si>
-  <si>
     <t xml:space="preserve">管理费</t>
   </si>
   <si>
@@ -155,6 +155,9 @@
     <t xml:space="preserve">铁东</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">国网辽宁鞍山车辆运输服务部综合楼装饰装修分系统4层、5层停车场改造</t>
   </si>
   <si>
@@ -164,10 +167,10 @@
     <t xml:space="preserve">该项目主要内容及工程量：根据使用单位需求利用现有停车场改为办公用房使用，并对该房间内进行重新装修，装修面积2752㎡。砌筑墙体130.8m³（200厚轻集料混凝土砌块）；地面铺砖2350㎡；橡胶板地面226平方米；重新刮大白、刷乳胶漆508㎡；室内墙砖铺贴546㎡；安装铝板吊顶2350㎡；安装内门65樘；喷淋支管（上喷改下喷）126米；喷淋头180个；感烟探测器38个；灯具130套；散热器更换65组；安装暖气罩215㎡；窗台板18.55㎡；更衣柜40米；肯德基门6㎡；楼内线路整体改造；增设电暖气40组等。</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">2022/4/22 0:00:00</t>
@@ -383,33 +386,35 @@
     <col min="8" max="8" width="12.78125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="18.78125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="5.171875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="58.59375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="58.59375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="58.59375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="58.59375" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="9.171875" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="9.171875" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.78125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.78125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.78125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="11.171875" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.78125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.78125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="20.78125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9.171875" customWidth="1" collapsed="1"/>
     <col min="24" max="24" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.78125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.78125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="7.171875" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="10.171875" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="10.171875" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="7.171875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="11.171875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.78125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="24.78125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="7.171875" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="9.171875" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="9.171875" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="7.171875" customWidth="1" collapsed="1"/>
     <col min="36" max="36" width="9.171875" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="9.171875" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="9.171875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -510,18 +515,24 @@
         <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -572,102 +583,108 @@
         <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="Y2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AH2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>51</v>
@@ -748,39 +765,45 @@
         <v>51</v>
       </c>
       <c r="AK3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>51</v>
@@ -861,39 +884,45 @@
         <v>51</v>
       </c>
       <c r="AK4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>51</v>
@@ -974,6 +1003,12 @@
         <v>51</v>
       </c>
       <c r="AK5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM5" s="2" t="s">
         <v>51</v>
       </c>
     </row>
